--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Product name</t>
   </si>
@@ -41,40 +41,70 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mahindra</t>
-  </si>
-  <si>
-    <t>265 Nbp</t>
-  </si>
-  <si>
-    <t>Model 265 Nbp</t>
-  </si>
-  <si>
-    <t>265 xp</t>
-  </si>
-  <si>
-    <t>275 di Nbp</t>
-  </si>
-  <si>
-    <t>275 di xp plus</t>
-  </si>
-  <si>
-    <t>225 jivo</t>
-  </si>
-  <si>
-    <t>475 xp plus</t>
-  </si>
-  <si>
-    <t>475 sp plus</t>
-  </si>
-  <si>
-    <t>475 di ms sp plus</t>
-  </si>
-  <si>
-    <t>275 di tu sp plus</t>
-  </si>
-  <si>
-    <t>585 xp plus</t>
+    <t>Mahindra 215 Yuvraj</t>
+  </si>
+  <si>
+    <t>Mahindra 215 Yuvraj - 15 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 225 Jivo 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra 225 Jivo 2WD - 20 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 245 Jivo 4WD</t>
+  </si>
+  <si>
+    <t>Mahindra 245 Jivo 4WD - 24 HP</t>
+  </si>
+  <si>
+    <t>Mahindra OJA 2127 4WD</t>
+  </si>
+  <si>
+    <t>Mahindra OJA 2127 4WD - 27 HP</t>
+  </si>
+  <si>
+    <t>Mahindra OJA 2136 4WD</t>
+  </si>
+  <si>
+    <t>Mahindra OJA 2136 4WD - 36 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 265 DI XP Plus</t>
+  </si>
+  <si>
+    <t>Mahindra 265 DI XP Plus - 39 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 405 DI Yuvo Tech Plus</t>
+  </si>
+  <si>
+    <t>Mahindra 405 DI Yuvo Tech Plus - 39 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 575 DI XP Plus</t>
+  </si>
+  <si>
+    <t>Mahindra 575 DI XP Plus - 45 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 575 DI Yuvo Tech 4WD</t>
+  </si>
+  <si>
+    <t>Mahindra 575 DI Yuvo Tech 4WD - 47 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 585 DI Yuvo Tech 4WD</t>
+  </si>
+  <si>
+    <t>Mahindra 585 DI Yuvo Tech 4WD - 50 HP</t>
+  </si>
+  <si>
+    <t>Mahindra 605 Novo CRDI T4</t>
+  </si>
+  <si>
+    <t>Mahindra 605 Novo CRDI T4 - 60 HP</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1257,21 +1287,21 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>595000</v>
+        <v>370000</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>620000</v>
+        <v>520000</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1279,114 +1309,128 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
+        <v>620000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>670000</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>660000</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>490000</v>
+        <v>820000</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>745000</v>
+        <v>650000</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>745000</v>
+        <v>685000</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>735000</v>
+        <v>790000</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>670000</v>
+        <v>920000</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>840000</v>
+        <v>1020000</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1235000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Product name</t>
   </si>
@@ -41,70 +41,70 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mahindra 215 Yuvraj</t>
-  </si>
-  <si>
-    <t>Mahindra 215 Yuvraj - 15 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 225 Jivo 2WD</t>
-  </si>
-  <si>
-    <t>Mahindra 225 Jivo 2WD - 20 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 245 Jivo 4WD</t>
-  </si>
-  <si>
-    <t>Mahindra 245 Jivo 4WD - 24 HP</t>
-  </si>
-  <si>
-    <t>Mahindra OJA 2127 4WD</t>
-  </si>
-  <si>
-    <t>Mahindra OJA 2127 4WD - 27 HP</t>
-  </si>
-  <si>
-    <t>Mahindra OJA 2136 4WD</t>
-  </si>
-  <si>
-    <t>Mahindra OJA 2136 4WD - 36 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 265 DI XP Plus</t>
-  </si>
-  <si>
-    <t>Mahindra 265 DI XP Plus - 39 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 405 DI Yuvo Tech Plus</t>
-  </si>
-  <si>
-    <t>Mahindra 405 DI Yuvo Tech Plus - 39 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 575 DI XP Plus</t>
-  </si>
-  <si>
-    <t>Mahindra 575 DI XP Plus - 45 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 575 DI Yuvo Tech 4WD</t>
-  </si>
-  <si>
-    <t>Mahindra 575 DI Yuvo Tech 4WD - 47 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 585 DI Yuvo Tech 4WD</t>
-  </si>
-  <si>
-    <t>Mahindra 585 DI Yuvo Tech 4WD - 50 HP</t>
-  </si>
-  <si>
-    <t>Mahindra 605 Novo CRDI T4</t>
-  </si>
-  <si>
-    <t>Mahindra 605 Novo CRDI T4 - 60 HP</t>
+    <t>Massey Ferguson MF 9563 4WD</t>
+  </si>
+  <si>
+    <t>HP 51+ Front Tire 9.5x24 Rear Tire 16.9x28 RPM 540</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 9563 2WD</t>
+  </si>
+  <si>
+    <t>HP 51+ Front Tire 7.5x16 Rear Tire 16.9x28 RPM 540</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 8055 MagnaTrak</t>
+  </si>
+  <si>
+    <t>HP 50 Front Tire 7.5x16 Rear Tire 16.9x28 RPM 540   | MAXX OIB / MF Duracool Brakes</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 7250 DI 2WD</t>
+  </si>
+  <si>
+    <t>HP 50 Front Tire 6.00x16 Rear Tire 13.6x28 RPM 540  | Oil Immersed Brakes</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 7250 Power 2WD</t>
+  </si>
+  <si>
+    <t>HP 46 Front Tire 7.5x16 Rear Tire 14.9x28 RPM 540   | Oil Immersed Brake</t>
+  </si>
+  <si>
+    <t>Massey Ferguson 254 DynaSmart 4WD</t>
+  </si>
+  <si>
+    <t>HP 50 Front Tire 8x18 Rear Tire 14.9x28 RPM 540     | Oil Immersed Brakes</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 246 DYNATRACK 4WD</t>
+  </si>
+  <si>
+    <t>HP 50 Front Tire 8.00x18 Rear Tire 14.9x28 RPM 540 Multi disc oil immersed brakes</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 7235 2WD</t>
+  </si>
+  <si>
+    <t>HP 35 Front Tire 6x16 Rear Tire 12.4x28/13.6x28 RPM 540 RPM &amp; 1000 RPM - Optional Multi disc oil immersed brakes</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 1035 2WD</t>
+  </si>
+  <si>
+    <t>HP 35 Front Tire 6x16 Rear Tire 13.6x28 RPM 540 RPM @ 1500 ERPM Dry Brake</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 5225 2WD</t>
+  </si>
+  <si>
+    <t>HP 25 Front Tire 5.25x14 Rear Tire 8.3x24 RPM 540 RPM @ 2200 ERPM, 540 RPM Eco @ 1642 ERPM Multi disc oil immersed brakes</t>
+  </si>
+  <si>
+    <t>Massey Ferguson MF 5118 2WD</t>
+  </si>
+  <si>
+    <t>HP 18 Front Tire 4.75x14 Rear Tire 8x18 RPM 540 RPM Multi disc oil immersed brakes</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1260,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1287,10 +1290,11 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>370000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>1650000</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;B2</f>
+        <v>Massey Ferguson MF 9563 4WDHP 51+ Front Tire 9.5x24 Rear Tire 16.9x28 RPM 540</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1301,10 +1305,11 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>520000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>1530000</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D12" si="0">A3&amp;B3</f>
+        <v>Massey Ferguson MF 9563 2WDHP 51+ Front Tire 7.5x16 Rear Tire 16.9x28 RPM 540</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1315,10 +1320,11 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>620000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>1335000</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 8055 MagnaTrakHP 50 Front Tire 7.5x16 Rear Tire 16.9x28 RPM 540   | MAXX OIB / MF Duracool Brakes</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:4">
@@ -1329,10 +1335,11 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>670000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>1087000</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 7250 DI 2WDHP 50 Front Tire 6.00x16 Rear Tire 13.6x28 RPM 540  | Oil Immersed Brakes</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1343,10 +1350,11 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>820000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>1050000</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 7250 Power 2WDHP 46 Front Tire 7.5x16 Rear Tire 14.9x28 RPM 540   | Oil Immersed Brake</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1357,10 +1365,11 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>650000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>1395000</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson 254 DynaSmart 4WDHP 50 Front Tire 8x18 Rear Tire 14.9x28 RPM 540     | Oil Immersed Brakes</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1371,10 +1380,11 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>685000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
+        <v>1330000</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 246 DYNATRACK 4WDHP 50 Front Tire 8.00x18 Rear Tire 14.9x28 RPM 540 Multi disc oil immersed brakes</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1385,10 +1395,11 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>790000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+        <v>850000</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 7235 2WDHP 35 Front Tire 6x16 Rear Tire 12.4x28/13.6x28 RPM 540 RPM &amp; 1000 RPM - Optional Multi disc oil immersed brakes</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1399,10 +1410,11 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>920000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>885000</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 1035 2WDHP 35 Front Tire 6x16 Rear Tire 13.6x28 RPM 540 RPM @ 1500 ERPM Dry Brake</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1413,10 +1425,11 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>1020000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
+        <v>625000</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 5225 2WDHP 25 Front Tire 5.25x14 Rear Tire 8.3x24 RPM 540 RPM @ 2200 ERPM, 540 RPM Eco @ 1642 ERPM Multi disc oil immersed brakes</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1427,10 +1440,11 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1235000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+        <v>520000</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Massey Ferguson MF 5118 2WDHP 18 Front Tire 4.75x14 Rear Tire 8x18 RPM 540 RPM Multi disc oil immersed brakes</v>
       </c>
     </row>
   </sheetData>
